--- a/Örnek 28 - Eğer ve İşlem.xlsx
+++ b/Örnek 28 - Eğer ve İşlem.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4BD4D2-2453-401D-AD6E-2F6015DF3575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCB8B36-6B52-4155-8AA1-59016B8FCEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15-eşiçalışıyormu" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ali</t>
   </si>
@@ -97,12 +100,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -885,12 +894,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -905,7 +914,11 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>6</v>
@@ -930,7 +943,10 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <f>IF(D4="HAYIR",C4+$E$2,C4)</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -942,7 +958,10 @@
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E11" si="0">IF(D5="HAYIR",C5+$E$2,C5)</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -954,7 +973,10 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -966,11 +988,16 @@
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="I7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="34">
+        <v>20215070019</v>
+      </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
@@ -984,11 +1011,16 @@
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="I8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
     </row>
@@ -1002,11 +1034,16 @@
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="I9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
@@ -1020,7 +1057,10 @@
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1032,7 +1072,10 @@
       <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
